--- a/data/xwh_romo.xlsx
+++ b/data/xwh_romo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dodiwidiantoko/Documents/gresik/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dodiwidiantoko/Documents/upload/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7869B0B-205D-504F-9273-BFAB35FC3B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB7B631-B55A-014A-8D8E-BDAAB199DE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="21960" windowHeight="17500" xr2:uid="{B0CFB64F-38A3-0B4D-BB9B-05303699F3C8}"/>
   </bookViews>
@@ -7755,7 +7755,7 @@
   <dimension ref="A1:K2054"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2016" workbookViewId="0">
-      <selection activeCell="K2054" sqref="K2054"/>
+      <selection activeCell="A2016" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
